--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-11_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-11_beg.xlsx
@@ -2104,7 +2104,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Unimpeded?”
+    <t xml:space="preserve">[name="Kal'tsit"]  'Unimpeded?'
 </t>
   </si>
   <si>
@@ -2936,7 +2936,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The group that found her and smuggled her to Rhodes Island has made it clear that “Rosmontis does not exist.”
+    <t xml:space="preserve">[name="Kal'tsit"]  The group that found her and smuggled her to Rhodes Island has made it clear that 'Rosmontis does not exist.'
 </t>
   </si>
   <si>
@@ -3036,7 +3036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Patriot, of Reunion.”
+    <t xml:space="preserve">[name="Kal'tsit"]  'Patriot, of Reunion.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-11_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-11_beg.xlsx
@@ -2092,11 +2092,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Chernobog Central District 1:20 PM
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, this is Kal'tsit. We’re on the edge of the central district, four hundred and ten meters out from the warehouse, seventeen, sixty-seven, southwest.
+    <t xml:space="preserve">Chernobog Central District 1:20 P.M.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, this is Kal'tsit. We're on the edge of the central district, four hundred and ten meters out from the warehouse, seventeen, sixty-seven, southwest.
 </t>
   </si>
   <si>
@@ -2116,11 +2116,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It would be unwise to spread their defenses thinly across the entire map. They will gather their elites in a few key locations. That’s what I would do if I were leading Reunion.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit!
+    <t xml:space="preserve">[name="Kal'tsit"]  It would be unwise to spread their defenses thinly across the entire map. They will gather their elites in a few key locations. That's what I would do if I were leading Reunion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit!
 </t>
   </si>
   <si>
@@ -2132,7 +2132,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...We’re on a mission. Next time, okay?
+    <t xml:space="preserve">[name="Kal'tsit"]  ...We're on a mission. Next time, okay?
 </t>
   </si>
   <si>
@@ -2172,7 +2172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (Their need to self-actualize tends to conflict with Raidian’s persistent motherliness.)
+    <t xml:space="preserve">[name="Kal'tsit"]  (Their need to self-actualize tends to conflict with Raidian's persistent motherliness.)
 </t>
   </si>
   <si>
@@ -2184,7 +2184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  That’s correct. No, that’s not a standard tactic for guerrilla fighters. It’s more like... hm...
+    <t xml:space="preserve">[name="Amiya"]  That's correct. No, that's not a standard tactic for guerrilla fighters. It's more like... hm...
 </t>
   </si>
   <si>
@@ -2196,7 +2196,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They’ve undergone strict military training... Yes, that’s likely.
+    <t xml:space="preserve">[name="Amiya"]  They've undergone strict military training... Yes, that's likely.
 </t>
   </si>
   <si>
@@ -2204,31 +2204,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They’re the only ones who could gather up such a large group of Infected.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s clear that this battle won’t be an easy win for us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Hm? No, I’m fine. Rosmontis and I, all the Rhodes Island operators... we all wanted to be here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Uh huh, it’s okay, Raidian, I have Dr. {@nickname} and Dr. Kal'tsit with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  All right, Amiya, it’s time to begin.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Right. Okay, Raidian, it’s up to you and Dr. Kal'tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  First thing’s first, we have to make good use of our comms.
+    <t xml:space="preserve">[name="Amiya"]  They're the only ones who could gather up such a large group of Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's clear that this battle won't be an easy win for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hm? No, I'm fine. Rosmontis and I, all the Rhodes Island operators... we all wanted to be here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Uh huh, it's okay, Raidian, I have Dr. {@nickname} and Dr. Kal'tsit with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  All right, Amiya, it's time to begin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right. Okay, Raidian, it's up to you and Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  First thing's first, we have to make good use of our comms.
 </t>
   </si>
   <si>
@@ -2244,7 +2244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Moderate dizziness is a side effect. It won’t harm your nervous system, but it will massively drain your strength.
+    <t xml:space="preserve">[name="Kal'tsit"]  Moderate dizziness is a side effect. It won't harm your nervous system, but it will massively drain your strength.
 </t>
   </si>
   <si>
@@ -2252,11 +2252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re asking a lot of you, Raidian.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis, all of the enemy’s messages will be sent to your portable terminal via Raidian. Feel them, and log them.
+    <t xml:space="preserve">[name="Kal'tsit"]  We're asking a lot of you, Raidian.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis, all of the enemy's messages will be sent to your portable terminal via Raidian. Feel them, and log them.
 </t>
   </si>
   <si>
@@ -2284,15 +2284,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis... I’m going closer to you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Yes, I’m ready too. I’m not scared. Amiya, don’t be scared of me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I won’t. I’m not scared of Rosmontis. We won’t be scared.
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... I'm going closer to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Yes, I'm ready too. I'm not scared. Amiya, don't be scared of me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I won't. I'm not scared of Rosmontis. We won't be scared.
 </t>
   </si>
   <si>
@@ -2300,15 +2300,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Amiya is stabilizing Rosmontis’s emotions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You may not want to look directly at them, Dr. {@nickname}. It is unwise for any but the most tragically afflicted warriors to look directly at the expansion of the essence of Rosmontis’s Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Excuse me?!;...Amiya...?;You’re can’t mean our little bunny...?", values="1;2;3")]
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya is stabilizing Rosmontis's emotions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You may not want to look directly at them, Dr. {@nickname}. It is unwise for any but the most tragically afflicted warriors to look directly at the expansion of the essence of Rosmontis's Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Excuse me?!;...Amiya...?;You're can't mean our little bunny...?", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2316,11 +2316,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I figured you’d realize it sooner.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Or that you already knew but hadn’t indicated as much to me.
+    <t xml:space="preserve">[name="Kal'tsit"]  I figured you'd realize it sooner.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Or that you already knew but hadn't indicated as much to me.
 </t>
   </si>
   <si>
@@ -2328,7 +2328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...Amiya’s battles, both physical and mental, have been far beyond what any human being should have to endure.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Amiya's battles, both physical and mental, have been far beyond what any human being should have to endure.
 </t>
   </si>
   <si>
@@ -2340,11 +2340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, I’m not talking specifically about a memory or a battlefield experience. This refers to demands on both responsibility and physical ability.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you’d like, you could hold Amiya’s hand to share that burden.
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, I'm not talking specifically about a memory or a battlefield experience. This refers to demands on both responsibility and physical ability.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you'd like, you could hold Amiya's hand to share that burden.
 </t>
   </si>
   <si>
@@ -2364,11 +2364,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our target is smaller and more precise than in a conventional battle. A small tactical assault team’s work is closer to a surgery than it is to a firefight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What the warmongers can’t do falls within our area of expertise. 
+    <t xml:space="preserve">[name="Kal'tsit"]  Our target is smaller and more precise than in a conventional battle. A small tactical assault team's work is closer to a surgery than it is to a firefight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What the warmongers can't do falls within our area of expertise. 
 </t>
   </si>
   <si>
@@ -2396,7 +2396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ve discussed how Reunion is not maintaining the city’s communication networks.
+    <t xml:space="preserve">[name="Kal'tsit"]  We've discussed how Reunion is not maintaining the city's communication networks.
 </t>
   </si>
   <si>
@@ -2420,7 +2420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="One advantage isn’t enough.", values="1")]
+    <t xml:space="preserve">[Decision(options="One advantage isn't enough.", values="1")]
 </t>
   </si>
   <si>
@@ -2440,11 +2440,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Can you guess what’s wrong with this method?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="It depends on the person first giving the order?;...the source.;The squad can’t survive without its head.", values="1;2;3")]
+    <t xml:space="preserve">[name="Kal'tsit"]  Can you guess what's wrong with this method?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It depends on the person first giving the order?;...the source.;The squad can't survive without its head.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2452,7 +2452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The real commander’s location is hidden.
+    <t xml:space="preserve">[name="Kal'tsit"]  The real commander's location is hidden.
 </t>
   </si>
   <si>
@@ -2460,11 +2460,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’d flush them out!;...Use bait.;I’d have to cause some chaos first.", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Now we’ve focused our thinking. This is another tactical advantage. 
+    <t xml:space="preserve">[Decision(options="I'd flush them out!;...Use bait.;I'd have to cause some chaos first.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Now we've focused our thinking. This is another tactical advantage. 
 </t>
   </si>
   <si>
@@ -2508,7 +2508,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  What’s more, we will have exposed our positioning and tactics, putting us in a difficult situation.
+    <t xml:space="preserve">[name="Kal'tsit"]  What's more, we will have exposed our positioning and tactics, putting us in a difficult situation.
 </t>
   </si>
   <si>
@@ -2516,7 +2516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The guerrillas won’t be expecting another Infected spec ops team.
+    <t xml:space="preserve">[name="Kal'tsit"]  The guerrillas won't be expecting another Infected spec ops team.
 </t>
   </si>
   <si>
@@ -2524,11 +2524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="I’m more concerned with implementation. Will it work?", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  —I’m not going to exaggerate.
+    <t xml:space="preserve">[Decision(options="I'm more concerned with implementation. Will it work?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —I'm not going to exaggerate.
 </t>
   </si>
   <si>
@@ -2544,7 +2544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  ...Rosmontis should have started her search. Hold your breath, and don’t look.
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Rosmontis should have started her search. Hold your breath, and don't look.
 </t>
   </si>
   <si>
@@ -2556,7 +2556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis... you’re okay. Come here, a little closer.
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... you're okay. Come here, a little closer.
 </t>
   </si>
   <si>
@@ -2564,7 +2564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Your ear. I’m running my finger over your ear like this... you can hear it. These are just fragments of your imagination, and you’ve seen it all before.
+    <t xml:space="preserve">[name="Amiya"]  Your ear. I'm running my finger over your ear like this... you can hear it. These are just fragments of your imagination, and you've seen it all before.
 </t>
   </si>
   <si>
@@ -2588,11 +2588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Each of our squads will also redistribute their power projection, which I have already planned for. Don’t worry.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As for you, you’re with me.
+    <t xml:space="preserve">[name="Kal'tsit"]  Each of our squads will also redistribute their power projection, which I have already planned for. Don't worry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As for you, you're with me.
 </t>
   </si>
   <si>
@@ -2600,11 +2600,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Bring your security specialist. You can’t refuse. I think.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The guerrillas’ equipment is of excellent quality, similar to that of the Ursus military, and they keep to discipline and tactics even more harshly and effectively.
+    <t xml:space="preserve">[name="Kal'tsit"]  Bring your security specialist. You can't refuse. I think.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The guerrillas' equipment is of excellent quality, similar to that of the Ursus military, and they keep to discipline and tactics even more harshly and effectively.
 </t>
   </si>
   <si>
@@ -2612,11 +2612,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You are safe only under my protection. I don’t want Rosmontis to kill you by accident, and I don’t want Amiya to distract herself trying to protect you. And Raidian, you haven’t even met.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You can’t cause trouble with me.
+    <t xml:space="preserve">[name="Kal'tsit"]  You are safe only under my protection. I don't want Rosmontis to kill you by accident, and I don't want Amiya to distract herself trying to protect you. And Raidian, you haven't even met.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can't cause trouble with me.
 </t>
   </si>
   <si>
@@ -2632,7 +2632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, sever Rosmontis’s connection. Now!
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, sever Rosmontis's connection. Now!
 </t>
   </si>
   <si>
@@ -2640,15 +2640,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  But... Rosmontis... The scene I reached out to was stable, nothing strange was happening... It shouldn’t have...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s... falling? She’s... looking at the sky?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...Lost. She’s lost. She’s falling.
+    <t xml:space="preserve">[name="Amiya"]  But... Rosmontis... The scene I reached out to was stable, nothing strange was happening... It shouldn't have...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It's... falling? She's... looking at the sky?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Lost. She's lost. She's falling.
 </t>
   </si>
   <si>
@@ -2664,7 +2664,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  This isn’t like Raidian using supplements to replenish her energy. Rosmontis’s Arts throw off a balance inside her body, but not an entirely biological one.
+    <t xml:space="preserve">[name="Kal'tsit"]  This isn't like Raidian using supplements to replenish her energy. Rosmontis's Arts throw off a balance inside her body, but not an entirely biological one.
 </t>
   </si>
   <si>
@@ -2696,7 +2696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis’s problem is not biological. She is the only one who can solve it.
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis's problem is not biological. She is the only one who can solve it.
 </t>
   </si>
   <si>
@@ -2712,7 +2712,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Look at Dr. Kal’tsit’s hand.
+    <t xml:space="preserve">[name="Kal'tsit"]  Look at Dr. Kal'tsit's hand.
 </t>
   </si>
   <si>
@@ -2724,7 +2724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis, Kal'tsit doesn’t have much time to stay with you. Neither does Amiya...
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis, Kal'tsit doesn't have much time to stay with you. Neither does Amiya...
 </t>
   </si>
   <si>
@@ -2748,7 +2748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  It’s very hard, I know... But, Rosmontis, this is the deck, you can step on it. You won’t fall through.
+    <t xml:space="preserve">[name="Amiya"]  It's very hard, I know... But, Rosmontis, this is the deck, you can step on it. You won't fall through.
 </t>
   </si>
   <si>
@@ -2756,11 +2756,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re here with you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I’m here with you.
+    <t xml:space="preserve">[name="Kal'tsit"]  We're here with you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I'm here with you.
 </t>
   </si>
   <si>
@@ -2768,11 +2768,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Her breathing... it’s stabilizing.", values="1")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...Doctor... Kal’tsit... give me...
+    <t xml:space="preserve">[Decision(options="Her breathing... it's stabilizing.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Doctor... Kal'tsit... give me...
 </t>
   </si>
   <si>
@@ -2784,11 +2784,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, connect Rosmontis’s terminal. She’s okay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I’m sure. Do it.
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, connect Rosmontis's terminal. She's okay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm sure. Do it.
 </t>
   </si>
   <si>
@@ -2804,11 +2804,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Her... Rosmontis is standing now. Her consciousness is peaceful and harmonious. Aw... it’s like a fluffy basket holding her dreams.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  We’re fine, Dr. Kal'tsit.
+    <t xml:space="preserve">[name="Amiya"]  Her... Rosmontis is standing now. Her consciousness is peaceful and harmonious. Aw... it's like a fluffy basket holding her dreams.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We're fine, Dr. Kal'tsit.
 </t>
   </si>
   <si>
@@ -2828,19 +2828,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Amiya’s turning red, Dr. {@nickname}.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...I didn’t want you to see that!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It’s okay. Mmhm. Okay.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Again... again. Amiya, let’s go forward a bit. I can feel it.
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya's turning red, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I didn't want you to see that!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  It's okay. Mmhm. Okay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Again... again. Amiya, let's go forward a bit. I can feel it.
 </t>
   </si>
   <si>
@@ -2852,7 +2852,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’re ready.
+    <t xml:space="preserve">[name="Kal'tsit"]  We're ready.
 </t>
   </si>
   <si>
@@ -2860,7 +2860,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Don’t thank me for doing my job, Rosmontis... no need. You know I love saying that, don’t you?
+    <t xml:space="preserve">[name="Amiya"]  Don't thank me for doing my job, Rosmontis... no need. You know I love saying that, don't you?
 </t>
   </si>
   <si>
@@ -2868,11 +2868,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  It’s a long road.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Let’s go, Amiya. We can go down.
+    <t xml:space="preserve">[name="Rosmontis"]  It's a long road.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Let's go, Amiya. We can go down.
 </t>
   </si>
   <si>
@@ -2884,7 +2884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Okay, now, Raiden, Dr. Kal’tsit, Rosmontis...
+    <t xml:space="preserve">[name="Amiya"]  Okay, now, Raiden, Dr. Kal'tsit, Rosmontis...
 </t>
   </si>
   <si>
@@ -2900,7 +2900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  That’s not what you’re thinking. But if you’d like, I can be harsher with you.
+    <t xml:space="preserve">[name="Kal'tsit"]  That's not what you're thinking. But if you'd like, I can be harsher with you.
 </t>
   </si>
   <si>
@@ -2940,7 +2940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  I know what you’re thinking. And no, through force or coercion, I would never allow an individual who has been through that to become an operator.
+    <t xml:space="preserve">[name="Kal'tsit"]  I know what you're thinking. And no, through force or coercion, I would never allow an individual who has been through that to become an operator.
 </t>
   </si>
   <si>
@@ -2952,7 +2952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We didn’t want to abandon her to the wilderness. We did not want to inject her with suppressants. And we certainly didn’t want Rhodes Island to be reduced to a heap of pulverized shrapnel.
+    <t xml:space="preserve">[name="Kal'tsit"]  We didn't want to abandon her to the wilderness. We did not want to inject her with suppressants. And we certainly didn't want Rhodes Island to be reduced to a heap of pulverized shrapnel.
 </t>
   </si>
   <si>
@@ -2960,11 +2960,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She’s like Amiya in some ways, and unlike her in others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Don’t keep me in suspense.;...Elaborate.;I don’t quite understand.", values="1;2;3")]
+    <t xml:space="preserve">[name="Kal'tsit"]  She's like Amiya in some ways, and unlike her in others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Don't keep me in suspense.;...Elaborate.;I don't quite understand.", values="1;2;3")]
 </t>
   </si>
   <si>
@@ -2976,7 +2976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  As for how they’re different—
+    <t xml:space="preserve">[name="Kal'tsit"]  As for how they're different—
 </t>
   </si>
   <si>
@@ -2988,7 +2988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  She’s never given up on a mission. Faced with any situation, she handles it appropriate, and wins.
+    <t xml:space="preserve">[name="Kal'tsit"]  She's never given up on a mission. Faced with any situation, she handles it appropriate, and wins.
 </t>
   </si>
   <si>
@@ -3020,11 +3020,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  There are other operators with detection Arts similar to Rosmontis’s, with different casting conditions.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis can do more than just locate, you’ve seen the way she fights.
+    <t xml:space="preserve">[name="Kal'tsit"]  There are other operators with detection Arts similar to Rosmontis's, with different casting conditions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis can do more than just locate, you've seen the way she fights.
 </t>
   </si>
   <si>
@@ -3040,7 +3040,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Yelena’s...", values="1")]
+    <t xml:space="preserve">[Decision(options="Yelena's...", values="1")]
 </t>
   </si>
   <si>
@@ -3052,15 +3052,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Copy! I’ll go to the town hall, Dr. Kal'tsit!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Then we’ll go to #4 Secondary School, Doctor. Move.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I’ll help you command, Dr. Kal'tsit.", values="1")]
+    <t xml:space="preserve">[name="Amiya"]  Copy! I'll go to the town hall, Dr. Kal'tsit!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Then we'll go to #4 Secondary School, Doctor. Move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I'll help you command, Dr. Kal'tsit.", values="1")]
 </t>
   </si>
   <si>
@@ -3100,11 +3100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But he won’t, not this guerrilla commander.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  He won’t lose control of the battle and watch his team fall apart. It is not faith alone that keeps his people together, he has the strength to live up to his name.
+    <t xml:space="preserve">[name="Kal'tsit"]  But he won't, not this guerrilla commander.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  He won't lose control of the battle and watch his team fall apart. It is not faith alone that keeps his people together, he has the strength to live up to his name.
 </t>
   </si>
   <si>
@@ -3976,7 +3976,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="켈시"]  우리는 그녀를 황야에 버리고 싶지 않아. 억제제 따위를 주사하고 싶지도 않고, 그렇다고 로도스를 산산조각 낼 때까지 내버려 둘 수도 없었지.
+    <t xml:space="preserve">[name="켈시"]  우리는 그녀를 황야에 버리고 싶지 않아. 억제제 따위를 주사하고 싶지도 않고, 그렇다고 로도스 아일랜드를 산산조각 낼 때까지 내버려 둘 수도 없었지.
 </t>
   </si>
   <si>
